--- a/team_specific_matrix/Nebraska_A.xlsx
+++ b/team_specific_matrix/Nebraska_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1644736842105263</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="C2">
-        <v>0.625</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0131578947368421</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.131578947368421</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06578947368421052</v>
+        <v>0.07467532467532467</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="C3">
-        <v>0.04950495049504951</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8118811881188119</v>
+        <v>0.7806122448979592</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1386138613861386</v>
+        <v>0.1479591836734694</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1578947368421053</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.631578947368421</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2105263157894737</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06306306306306306</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009009009009009009</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03603603603603604</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1711711711711712</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01801801801801802</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1711711711711712</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="R6">
-        <v>0.08108108108108109</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="S6">
-        <v>0.4504504504504505</v>
+        <v>0.3857142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1067961165048544</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009708737864077669</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04854368932038835</v>
+        <v>0.06285714285714286</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0970873786407767</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009708737864077669</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1262135922330097</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="R7">
-        <v>0.1359223300970874</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="S7">
-        <v>0.4660194174757282</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09051724137931035</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01293103448275862</v>
+        <v>0.009456264775413711</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03448275862068965</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09051724137931035</v>
+        <v>0.115839243498818</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01293103448275862</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2068965517241379</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="R8">
-        <v>0.09482758620689655</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S8">
-        <v>0.456896551724138</v>
+        <v>0.4160756501182033</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1148648648648649</v>
+        <v>0.1144067796610169</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02027027027027027</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08108108108108109</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0472972972972973</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02702702702702703</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1418918918918919</v>
+        <v>0.1398305084745763</v>
       </c>
       <c r="R9">
-        <v>0.1621621621621622</v>
+        <v>0.1398305084745763</v>
       </c>
       <c r="S9">
-        <v>0.4054054054054054</v>
+        <v>0.4364406779661017</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09902370990237098</v>
+        <v>0.1034236804564907</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01534170153417015</v>
+        <v>0.01569186875891583</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07252440725244072</v>
+        <v>0.07061340941512126</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.104602510460251</v>
+        <v>0.1241084165477889</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01673640167364017</v>
+        <v>0.01783166904422254</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2050209205020921</v>
+        <v>0.2039942938659058</v>
       </c>
       <c r="R10">
-        <v>0.1101813110181311</v>
+        <v>0.1062767475035663</v>
       </c>
       <c r="S10">
-        <v>0.3765690376569037</v>
+        <v>0.3580599144079886</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1593406593406593</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1043956043956044</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="K11">
-        <v>0.2362637362637363</v>
+        <v>0.2199312714776632</v>
       </c>
       <c r="L11">
-        <v>0.478021978021978</v>
+        <v>0.5292096219931272</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02197802197802198</v>
+        <v>0.01718213058419244</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.686046511627907</v>
+        <v>0.7077922077922078</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2325581395348837</v>
+        <v>0.2012987012987013</v>
       </c>
       <c r="K12">
-        <v>0.02325581395348837</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="L12">
-        <v>0.01162790697674419</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04651162790697674</v>
+        <v>0.03246753246753246</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2592592592592592</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1603053435114504</v>
+        <v>0.1614349775784753</v>
       </c>
       <c r="I15">
-        <v>0.1068702290076336</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="J15">
-        <v>0.3282442748091603</v>
+        <v>0.3497757847533632</v>
       </c>
       <c r="K15">
-        <v>0.03816793893129771</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04580152671755725</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3206106870229007</v>
+        <v>0.3228699551569507</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01834862385321101</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1009174311926606</v>
+        <v>0.1244019138755981</v>
       </c>
       <c r="I16">
-        <v>0.1284403669724771</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="J16">
-        <v>0.4036697247706422</v>
+        <v>0.4258373205741627</v>
       </c>
       <c r="K16">
-        <v>0.1009174311926606</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01834862385321101</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05504587155963303</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1743119266055046</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01195219123505976</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1792828685258964</v>
+        <v>0.1626373626373626</v>
       </c>
       <c r="I17">
-        <v>0.1354581673306773</v>
+        <v>0.1274725274725275</v>
       </c>
       <c r="J17">
-        <v>0.4262948207171315</v>
+        <v>0.4439560439560439</v>
       </c>
       <c r="K17">
-        <v>0.06374501992031872</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.00796812749003984</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05976095617529881</v>
+        <v>0.05274725274725275</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1155378486055777</v>
+        <v>0.1186813186813187</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0136986301369863</v>
+        <v>0.01115241635687732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1095890410958904</v>
+        <v>0.1226765799256506</v>
       </c>
       <c r="I18">
-        <v>0.0958904109589041</v>
+        <v>0.1003717472118959</v>
       </c>
       <c r="J18">
-        <v>0.4383561643835616</v>
+        <v>0.449814126394052</v>
       </c>
       <c r="K18">
-        <v>0.0684931506849315</v>
+        <v>0.07434944237918216</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0136986301369863</v>
+        <v>0.007434944237918215</v>
       </c>
       <c r="N18">
-        <v>0.00684931506849315</v>
+        <v>0.007434944237918215</v>
       </c>
       <c r="O18">
-        <v>0.06164383561643835</v>
+        <v>0.05947955390334572</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1917808219178082</v>
+        <v>0.1672862453531599</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0130039011703511</v>
+        <v>0.01240875912408759</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1807542262678804</v>
+        <v>0.1875912408759124</v>
       </c>
       <c r="I19">
-        <v>0.09362808842652796</v>
+        <v>0.07518248175182482</v>
       </c>
       <c r="J19">
-        <v>0.3706111833550065</v>
+        <v>0.4007299270072993</v>
       </c>
       <c r="K19">
-        <v>0.1248374512353706</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02730819245773732</v>
+        <v>0.02262773722627737</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.00145985401459854</v>
       </c>
       <c r="O19">
-        <v>0.07282184655396619</v>
+        <v>0.06423357664233577</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1170351105331599</v>
+        <v>0.1262773722627737</v>
       </c>
     </row>
   </sheetData>
